--- a/izakaya-note/public/beverages.xlsx
+++ b/izakaya-note/public/beverages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySpace\izakaya\izakaya-note\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD4C1D5-4768-43D0-B2AF-4EFD56219405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05CA458-1139-4DEE-BADB-40780A505CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
   <si>
     <t>绿茶</t>
   </si>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC2】古明地冰激凌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无酒精、现代、水果、甘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】古法奶油冰沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法森林上海人形处购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,14 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC2】气保健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】杨枝甘露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命莲寺娜兹玲处购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,18 +289,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无酒精、可加冰、可加热、现代、提神、苦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】妖精雨露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法森林中部树根处采集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】普通健身茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>博丽神社河童处、神灵庙道士处购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,18 +341,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC3】麒麟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神灵庙道士处购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC1】大吟酿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中酒精、可加冰、清酒、古典、水果、直饮、甘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,23 +357,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【DLC2】鬼杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旧地狱鬼商处购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地灵殿西南侧酒水架处采集，博丽神社妖精女仆处（概率）购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古法奶油冰沙</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>妖精雨露</t>
+  </si>
+  <si>
+    <t>普通健身茶</t>
+  </si>
+  <si>
+    <t>大吟酿</t>
+  </si>
+  <si>
+    <t>古明地冰激凌</t>
+  </si>
+  <si>
+    <t>气保健</t>
+  </si>
+  <si>
+    <t>鬼杀</t>
+  </si>
+  <si>
+    <t>杨枝甘露</t>
+  </si>
+  <si>
+    <t>麒麟</t>
+  </si>
+  <si>
+    <t>天地无用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伶人醉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高酒精、烧酒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低酒精、直饮、古典、水果、甘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +435,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -761,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -880,47 +893,47 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -931,112 +944,112 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
-        <v>50</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>86</v>
@@ -1045,69 +1058,69 @@
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1118,13 +1131,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1135,47 +1148,47 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -1186,30 +1199,30 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
-        <v>34</v>
+        <v>440</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
@@ -1220,47 +1233,47 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4">
         <v>2</v>
@@ -1271,70 +1284,70 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,27 +1355,27 @@
         <v>103</v>
       </c>
       <c r="B34" s="1">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1">
-        <v>440</v>
+        <v>210</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D35" s="4">
         <v>4</v>
@@ -1373,36 +1386,36 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1">
-        <v>70</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B37" s="1">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,41 +1432,63 @@
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B40" s="1">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1">
+        <v>150</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="1">
+        <v>100</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/izakaya-note/public/beverages.xlsx
+++ b/izakaya-note/public/beverages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySpace\izakaya\izakaya-note\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05CA458-1139-4DEE-BADB-40780A505CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329DFECC-0B23-4712-BFE0-D9DBFD0991DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>绿茶</t>
   </si>
@@ -177,9 +177,6 @@
     <t>中酒精、可加冰、可加热、清酒、古典、甘</t>
   </si>
   <si>
-    <t>迷途竹林妖怪兔处购买</t>
-  </si>
-  <si>
     <t>天狗踊</t>
   </si>
   <si>
@@ -317,30 +314,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香霖堂处（概率）、迷途竹林妖怪兔处、旧地狱鬼商处、神灵庙道士处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>博丽神社河童处、神灵庙道士处购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>妖怪兽道东南侧路灯附近采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地灵殿西南侧酒水架处采集，红魔馆妖精女仆处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖怪兽道南侧码头附近采集，命莲寺娜兹玲处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽神社西侧守矢分社处（概率）祈愿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神灵庙道士处购买</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,54 +338,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地灵殿西南侧酒水架处采集，博丽神社妖精女仆处（概率）购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古法奶油冰沙</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
-    <t>妖精雨露</t>
-  </si>
-  <si>
-    <t>普通健身茶</t>
-  </si>
-  <si>
-    <t>大吟酿</t>
-  </si>
-  <si>
-    <t>古明地冰激凌</t>
-  </si>
-  <si>
-    <t>气保健</t>
-  </si>
-  <si>
-    <t>鬼杀</t>
-  </si>
-  <si>
-    <t>杨枝甘露</t>
-  </si>
-  <si>
-    <t>麒麟</t>
-  </si>
-  <si>
-    <t>天地无用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伶人醉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>香霖堂处（概率）、迷途竹林妖怪兔处、旧地狱鬼商处、神灵庙道士处、太阳花田太阳花精处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪兽道东南侧路灯附近、太阳花田南侧银杏树附近采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红魔馆小恶魔处、辉针城不良少年处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地灵殿西南侧酒水架处、太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，红魔馆妖精女仆处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪兽道南侧码头附近、太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，命莲寺娜兹玲处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽神社西侧守矢分社处（概率）祈愿，太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，太阳花田太阳花精处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城东侧酒窖处（概率）采集，迷途竹林妖怪兔处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地灵殿西南侧酒水架处、辉针城东侧酒窖处（概率）采集，红魔馆妖精女仆处、辉针城不良少年处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地灵殿西南侧酒水架处、辉针城东侧酒窖处（概率）采集，博丽神社妖精女仆处（概率）购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城东侧酒窖处（概率）采集，旧地狱鬼商处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】古法奶油冰沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】妖精雨露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】普通健身茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC1】大吟酿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】古明地冰激凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】气保健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC2】鬼杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】杨枝甘露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC3】麒麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】伶人醉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低酒精、古典、水果、直饮、甘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城东侧酒窖处采集，太阳花田太阳花精处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC4】天地无用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高酒精、烧酒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低酒精、直饮、古典、水果、甘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉针城东侧酒窖处采集，辉针城不良少年处购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,16 +463,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -483,17 +512,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -777,7 +808,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="A1:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -786,709 +817,721 @@
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" customWidth="1"/>
+    <col min="5" max="5" width="90.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
+      <c r="E2" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>74</v>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>75</v>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>77</v>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>72</v>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>79</v>
+      <c r="C14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>80</v>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>82</v>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>84</v>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>84</v>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>25</v>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>28</v>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="1">
         <v>75</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>87</v>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>100</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>88</v>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>130</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>28</v>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>130</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>75</v>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>440</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>28</v>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
+      <c r="A27" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>70</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>180</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>90</v>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
+      <c r="A29" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B29" s="1">
         <v>400</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B30" s="1">
         <v>420</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>91</v>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>100</v>
+      <c r="A31" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="1">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>92</v>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>101</v>
+      <c r="A32" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B32" s="1">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>93</v>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>102</v>
+      <c r="A33" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B33" s="1">
         <v>80</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="4">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>94</v>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>103</v>
+      <c r="A34" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>96</v>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>104</v>
+      <c r="A35" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B35" s="1">
         <v>210</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="4">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>50</v>
+      <c r="C35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>105</v>
+      <c r="A36" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>106</v>
+      <c r="A37" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B37" s="1">
         <v>45</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>91</v>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>107</v>
+      <c r="A38" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B38" s="1">
         <v>320</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="5">
         <v>4</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>98</v>
+      <c r="E38" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>108</v>
+      <c r="A39" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B39" s="1">
         <v>50</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>99</v>
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>109</v>
+      <c r="A40" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B40" s="1">
         <v>180</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>98</v>
+      <c r="C40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2">
+        <v>100</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="2">
         <v>150</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="1">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>113</v>
+      <c r="C42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/izakaya-note/public/beverages.xlsx
+++ b/izakaya-note/public/beverages.xlsx
@@ -1,31 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySpace\izakaya\izakaya-note\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329DFECC-0B23-4712-BFE0-D9DBFD0991DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27510" windowHeight="16455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>获取方式（仅采集和购买）</t>
+  </si>
   <si>
     <t>绿茶</t>
   </si>
@@ -33,6 +50,9 @@
     <t>无酒精</t>
   </si>
   <si>
+    <t>初始拥有</t>
+  </si>
+  <si>
     <t>牛奶</t>
   </si>
   <si>
@@ -51,439 +71,728 @@
     <t>红魔馆红茶</t>
   </si>
   <si>
+    <t>无酒精、可加热、水果、提神</t>
+  </si>
+  <si>
+    <t>红魔馆小恶魔处购买</t>
+  </si>
+  <si>
     <t>波子汽水</t>
   </si>
   <si>
+    <t>无酒精、现代、气泡</t>
+  </si>
+  <si>
     <t>人间之里铃瑚屋处购买</t>
   </si>
   <si>
     <t>“大冰棍儿！”</t>
   </si>
   <si>
+    <t>无酒精、现代、提神、甘</t>
+  </si>
+  <si>
+    <t>妖怪兽道三妖精处购买</t>
+  </si>
+  <si>
     <t>阿芙加朵</t>
   </si>
   <si>
     <t>无酒精、可加冰、提神、甘、苦</t>
   </si>
   <si>
+    <t>冰山毛玉冻柠</t>
+  </si>
+  <si>
+    <t>无酒精、可加冰、气泡、水果、提神、直饮、甘</t>
+  </si>
+  <si>
+    <t>妖怪兽道萌澄果处购买</t>
+  </si>
+  <si>
+    <t>月面火箭</t>
+  </si>
+  <si>
+    <t>无酒精、可加冰、现代、气泡</t>
+  </si>
+  <si>
+    <t>迷途竹林西侧泉水处、地灵殿西北侧游乐场处（概率）采集</t>
+  </si>
+  <si>
+    <t>玉露茶</t>
+  </si>
+  <si>
+    <t>无酒精、可加热、古典</t>
+  </si>
+  <si>
+    <t>地灵殿西南侧酒水架处采集，博丽神社河童处（概率）购买</t>
+  </si>
+  <si>
+    <t>果味High Ball</t>
+  </si>
+  <si>
+    <t>低酒精、可加冰、西洋酒、鸡尾酒、水果、甘、苦</t>
+  </si>
+  <si>
+    <t>妖怪兽道商人处购买</t>
+  </si>
+  <si>
+    <t>果味SOUR</t>
+  </si>
+  <si>
+    <t>低酒精、可加冰、烧酒、鸡尾酒、水果、甘、苦</t>
+  </si>
+  <si>
+    <t>淇</t>
+  </si>
+  <si>
+    <t>低酒精、可加冰、清酒、鸡尾酒、气泡、甘、苦、辛</t>
+  </si>
+  <si>
+    <t>妖怪兽道商人处、人间之里酒屋处购买</t>
+  </si>
+  <si>
+    <t>超ZUN啤酒</t>
+  </si>
+  <si>
+    <t>低酒精、可加冰、啤酒、苦</t>
+  </si>
+  <si>
+    <t>人间之里酒屋处购买</t>
+  </si>
+  <si>
+    <t>猩红恶魔</t>
+  </si>
+  <si>
+    <t>低酒精、可加冰、西洋酒、鸡尾酒</t>
+  </si>
+  <si>
+    <t>博丽神社妖精女仆处购买</t>
+  </si>
+  <si>
+    <t>冬酿</t>
+  </si>
+  <si>
+    <t>低酒精、可加冰、可加热、古典、甘</t>
+  </si>
+  <si>
+    <t>香霖堂处（概率）、迷途竹林妖怪兔处、旧地狱鬼商处、神灵庙道士处、太阳花田太阳花精处购买</t>
+  </si>
+  <si>
+    <t>梅酒</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、可加热、利口酒、水果</t>
+  </si>
+  <si>
+    <t>日月星</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、可加热、清酒、直饮</t>
+  </si>
+  <si>
+    <t>神之麦</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、可加热、烧酒、直饮</t>
+  </si>
+  <si>
+    <t>博丽神社河童处、神灵庙道士处购买</t>
+  </si>
+  <si>
+    <t>雀酒</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、可加热、清酒、辛</t>
+  </si>
+  <si>
+    <t>妖怪兽道东南侧路灯附近、太阳花田南侧银杏树附近采集</t>
+  </si>
+  <si>
+    <t>红雾</t>
+  </si>
+  <si>
+    <t>中酒精、可加热、西洋酒</t>
+  </si>
+  <si>
+    <t>红魔馆小恶魔处、辉针城不良少年处购买</t>
+  </si>
+  <si>
+    <t>尼格罗尼</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、西洋酒、鸡尾酒、水果、苦</t>
+  </si>
+  <si>
+    <t>地灵殿西南侧酒水架处、太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，红魔馆妖精女仆处购买</t>
+  </si>
+  <si>
+    <t>水獭祭</t>
+  </si>
+  <si>
+    <t>妖怪兽道南侧码头附近、太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，命莲寺娜兹玲处购买</t>
+  </si>
+  <si>
+    <t>风祝</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、鸡尾酒、现代、甘</t>
+  </si>
+  <si>
+    <t>博丽神社西侧守矢分社处（概率）祈愿，太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，太阳花田太阳花精处购买</t>
+  </si>
+  <si>
+    <t>十四夜</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、可加热、清酒、古典、甘</t>
+  </si>
+  <si>
+    <t>辉针城东侧酒窖处（概率）采集，迷途竹林妖怪兔处购买</t>
+  </si>
+  <si>
+    <t>天狗踊</t>
+  </si>
+  <si>
+    <t>高酒精、可加冰、可加热、清酒、直饮</t>
+  </si>
+  <si>
+    <t>博丽神社河童处、旧地狱鬼商处购买</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>高酒精、可加冰、西洋酒、鸡尾酒、古典、苦</t>
+  </si>
+  <si>
+    <t>地灵殿西南侧酒水架处、辉针城东侧酒窖处（概率）采集，红魔馆妖精女仆处、辉针城不良少年处购买</t>
+  </si>
+  <si>
+    <t>晓</t>
+  </si>
+  <si>
+    <t>高酒精、可加冰、西洋酒、直饮</t>
+  </si>
+  <si>
+    <t>地灵殿西南侧酒水架处、辉针城东侧酒窖处（概率）采集，博丽神社妖精女仆处（概率）购买</t>
+  </si>
+  <si>
+    <t>火鼠裘</t>
+  </si>
+  <si>
+    <t>高酒精、可加热、烧酒、辛</t>
+  </si>
+  <si>
+    <t>辉针城东侧酒窖处（概率）采集，旧地狱鬼商处购买</t>
+  </si>
+  <si>
+    <t>【DLC1】古法奶油冰沙</t>
+  </si>
+  <si>
     <t>无酒精、可加冰、古典、甘</t>
   </si>
   <si>
-    <t>冰山毛玉冻柠</t>
-  </si>
-  <si>
-    <t>月面火箭</t>
-  </si>
-  <si>
-    <t>无酒精、可加冰、现代、气泡</t>
+    <t>魔法森林上海人形处购买</t>
+  </si>
+  <si>
+    <t>【DLC1】咖啡</t>
+  </si>
+  <si>
+    <t>无酒精、可加冰、可加热、现代、提神、苦</t>
+  </si>
+  <si>
+    <t>【DLC1】妖精雨露</t>
+  </si>
+  <si>
+    <t>无酒精、可加冰、甘</t>
+  </si>
+  <si>
+    <t>魔法森林中部树根处采集</t>
+  </si>
+  <si>
+    <t>【DLC1】普通健身茶</t>
+  </si>
+  <si>
+    <t>中酒精、利口酒、气泡、苦</t>
+  </si>
+  <si>
+    <t>【DLC1】大吟酿</t>
+  </si>
+  <si>
+    <t>中酒精、可加冰、清酒、古典、水果、直饮、甘</t>
+  </si>
+  <si>
+    <t>妖怪之山河童处（概率）购买</t>
+  </si>
+  <si>
+    <t>【DLC2】古明地冰激凌</t>
+  </si>
+  <si>
+    <t>无酒精、现代、水果、甘</t>
+  </si>
+  <si>
+    <t>地灵殿地狱鸦处购买</t>
+  </si>
+  <si>
+    <t>【DLC2】气保健</t>
   </si>
   <si>
     <t>无酒精、提神、直饮、甘</t>
   </si>
   <si>
-    <t>玉露茶</t>
-  </si>
-  <si>
-    <t>无酒精、可加热、古典</t>
-  </si>
-  <si>
-    <t>无酒精、可加冰、甘</t>
-  </si>
-  <si>
-    <t>果味High Ball</t>
-  </si>
-  <si>
-    <t>果味SOUR</t>
-  </si>
-  <si>
-    <t>低酒精、可加冰、烧酒、鸡尾酒、水果、甘、苦</t>
-  </si>
-  <si>
-    <t>淇</t>
-  </si>
-  <si>
-    <t>妖怪兽道商人处、人间之里酒屋处购买</t>
-  </si>
-  <si>
-    <t>超ZUN啤酒</t>
-  </si>
-  <si>
-    <t>低酒精、可加冰、啤酒、苦</t>
-  </si>
-  <si>
-    <t>人间之里酒屋处购买</t>
-  </si>
-  <si>
-    <t>猩红恶魔</t>
-  </si>
-  <si>
-    <t>冬酿</t>
-  </si>
-  <si>
-    <t>低酒精、可加冰、可加热、古典、甘</t>
-  </si>
-  <si>
-    <t>梅酒</t>
-  </si>
-  <si>
-    <t>中酒精、可加冰、可加热、利口酒、水果</t>
-  </si>
-  <si>
-    <t>中酒精、利口酒、气泡、苦</t>
-  </si>
-  <si>
-    <t>日月星</t>
-  </si>
-  <si>
-    <t>中酒精、可加冰、可加热、清酒、直饮</t>
-  </si>
-  <si>
-    <t>神之麦</t>
-  </si>
-  <si>
-    <t>中酒精、可加冰、可加热、烧酒、直饮</t>
-  </si>
-  <si>
-    <t>雀酒</t>
-  </si>
-  <si>
-    <t>中酒精、可加冰、可加热、清酒、辛</t>
-  </si>
-  <si>
-    <t>红雾</t>
-  </si>
-  <si>
-    <t>中酒精、可加热、西洋酒</t>
-  </si>
-  <si>
-    <t>尼格罗尼</t>
-  </si>
-  <si>
-    <t>中酒精、可加冰、西洋酒、鸡尾酒、水果、苦</t>
-  </si>
-  <si>
-    <t>水獭祭</t>
-  </si>
-  <si>
-    <t>风祝</t>
-  </si>
-  <si>
-    <t>中酒精、可加冰、鸡尾酒、现代、甘</t>
-  </si>
-  <si>
-    <t>十四夜</t>
-  </si>
-  <si>
-    <t>中酒精、可加冰、可加热、清酒、古典、甘</t>
-  </si>
-  <si>
-    <t>天狗踊</t>
-  </si>
-  <si>
-    <t>高酒精、可加冰、可加热、清酒、直饮</t>
-  </si>
-  <si>
-    <t>教父</t>
-  </si>
-  <si>
-    <t>高酒精、可加冰、西洋酒、鸡尾酒、古典、苦</t>
+    <t>【DLC2】鬼杀</t>
   </si>
   <si>
     <t>高酒精、可加冰、烧酒、古典、辛</t>
   </si>
   <si>
-    <t>晓</t>
-  </si>
-  <si>
-    <t>高酒精、可加冰、西洋酒、直饮</t>
-  </si>
-  <si>
-    <t>火鼠裘</t>
-  </si>
-  <si>
-    <t>高酒精、可加热、烧酒、辛</t>
+    <t>旧地狱鬼商处购买</t>
+  </si>
+  <si>
+    <t>【DLC3】杨枝甘露</t>
   </si>
   <si>
     <t>无酒精、可加冰、水果</t>
   </si>
   <si>
+    <t>命莲寺娜兹玲处购买</t>
+  </si>
+  <si>
+    <t>【DLC3】麒麟</t>
+  </si>
+  <si>
     <t>中酒精、啤酒、直饮</t>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取方式（仅采集和购买）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始拥有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无酒精、可加热、水果、提神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红魔馆小恶魔处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无酒精、现代、气泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无酒精、现代、水果、甘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地灵殿地狱鸦处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无酒精、现代、提神、甘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖怪兽道三妖精处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法森林上海人形处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无酒精、可加冰、气泡、水果、提神、直饮、甘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖怪兽道萌澄果处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷途竹林西侧泉水处、地灵殿西北侧游乐场处（概率）采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命莲寺娜兹玲处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地灵殿西南侧酒水架处采集，博丽神社河童处（概率）购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无酒精、可加冰、可加热、现代、提神、苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法森林中部树根处采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低酒精、可加冰、西洋酒、鸡尾酒、水果、甘、苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖怪兽道商人处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低酒精、可加冰、清酒、鸡尾酒、气泡、甘、苦、辛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低酒精、可加冰、西洋酒、鸡尾酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽神社妖精女仆处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽神社河童处、神灵庙道士处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神灵庙道士处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中酒精、可加冰、清酒、古典、水果、直饮、甘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖怪之山河童处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽神社河童处、旧地狱鬼商处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧地狱鬼商处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香霖堂处（概率）、迷途竹林妖怪兔处、旧地狱鬼商处、神灵庙道士处、太阳花田太阳花精处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖怪兽道东南侧路灯附近、太阳花田南侧银杏树附近采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红魔馆小恶魔处、辉针城不良少年处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地灵殿西南侧酒水架处、太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，红魔馆妖精女仆处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖怪兽道南侧码头附近、太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，命莲寺娜兹玲处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽神社西侧守矢分社处（概率）祈愿，太阳花田东侧向日葵处、辉针城东侧酒窖处（概率）采集，太阳花田太阳花精处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉针城东侧酒窖处（概率）采集，迷途竹林妖怪兔处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地灵殿西南侧酒水架处、辉针城东侧酒窖处（概率）采集，红魔馆妖精女仆处、辉针城不良少年处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地灵殿西南侧酒水架处、辉针城东侧酒窖处（概率）采集，博丽神社妖精女仆处（概率）购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉针城东侧酒窖处（概率）采集，旧地狱鬼商处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】古法奶油冰沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】妖精雨露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】普通健身茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC1】大吟酿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC2】古明地冰激凌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC2】气保健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC2】鬼杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】杨枝甘露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【DLC3】麒麟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【DLC4】伶人醉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>低酒精、古典、水果、直饮、甘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辉针城东侧酒窖处采集，太阳花田太阳花精处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【DLC4】天地无用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高酒精、烧酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辉针城东侧酒窖处采集，辉针城不良少年处购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【DLC5】卫星冰咖啡</t>
+  </si>
+  <si>
+    <t>无酒精、现代、提神、苦</t>
+  </si>
+  <si>
+    <t>【DLC5】太空啤酒</t>
+  </si>
+  <si>
+    <t>中酒精、现代、水果、啤酒</t>
+  </si>
+  <si>
+    <t>【DLC5】莫吉托爆浆球</t>
+  </si>
+  <si>
+    <t>低酒精、气泡、现代、鸡尾酒</t>
+  </si>
+  <si>
+    <t>【DLC5】魔界咖啡</t>
+  </si>
+  <si>
+    <t>高酒精、提神、可加热、西洋酒</t>
+  </si>
+  <si>
+    <t>【DLC5】海的女儿</t>
+  </si>
+  <si>
+    <t>低酒精、气泡、辛、古典</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -493,50 +802,337 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -585,7 +1181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -620,7 +1216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -794,713 +1390,708 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:E42"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="90.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="45.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="90.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1">
         <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1">
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1">
         <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1">
         <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1">
         <v>130</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
         <v>440</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1">
         <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
         <v>180</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1">
         <v>400</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1">
         <v>420</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D30" s="5">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1">
         <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
         <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D32" s="5">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1">
         <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D33" s="5">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1">
         <v>210</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D36" s="5">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B37" s="1">
         <v>45</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1">
         <v>320</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D38" s="5">
         <v>4</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B39" s="1">
         <v>50</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5">
         <v>2</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1">
         <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>113</v>
       </c>
@@ -1517,7 +2108,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>116</v>
       </c>
@@ -1534,9 +2125,84 @@
         <v>118</v>
       </c>
     </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="2">
+        <v>96</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="2">
+        <v>300</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="2">
+        <v>210</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="2">
+        <v>80</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>